--- a/data/Spreadsheet_Data/Image.xlsx
+++ b/data/Spreadsheet_Data/Image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088A8903-BE4F-8E49-995F-A7C16383134A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7416EB-46C9-B142-B032-A4BC00061FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33980" yWindow="500" windowWidth="38300" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="39520" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="287">
   <si>
     <t>ID</t>
   </si>
@@ -70,48 +70,6 @@
     <t>IW_006</t>
   </si>
   <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Caterpillar</t>
-  </si>
-  <si>
-    <t>Cheshire Cat</t>
-  </si>
-  <si>
-    <t>Mad Hatter</t>
-  </si>
-  <si>
-    <t>Queen of Hearts</t>
-  </si>
-  <si>
-    <t>White Rabbit</t>
-  </si>
-  <si>
-    <t>data/Multimedia_Data/Image_Wonderland/</t>
-  </si>
-  <si>
-    <t>Alice_003.jpg</t>
-  </si>
-  <si>
-    <t>Alice_004.jpg</t>
-  </si>
-  <si>
-    <t>Caterpillar_002.jpg</t>
-  </si>
-  <si>
-    <t>Cheshire_cat_002.jpg</t>
-  </si>
-  <si>
-    <t>Mad_hatter_002.jpg</t>
-  </si>
-  <si>
-    <t>Queen_hearts_002.jpg</t>
-  </si>
-  <si>
-    <t>White_rabbit_002.jpg</t>
-  </si>
-  <si>
     <t>IW_007</t>
   </si>
   <si>
@@ -136,9 +94,6 @@
     <t>IW_014</t>
   </si>
   <si>
-    <t>© Disney</t>
-  </si>
-  <si>
     <t>© John Tenniel</t>
   </si>
   <si>
@@ -928,27 +883,6 @@
     <t>Alice looking over her shoulder at White Kitten</t>
   </si>
   <si>
-    <t>IW_093</t>
-  </si>
-  <si>
-    <t>IW_094</t>
-  </si>
-  <si>
-    <t>IW_095</t>
-  </si>
-  <si>
-    <t>IW_096</t>
-  </si>
-  <si>
-    <t>IW_097</t>
-  </si>
-  <si>
-    <t>IW_098</t>
-  </si>
-  <si>
-    <t>IW_099</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -956,6 +890,12 @@
   </si>
   <si>
     <t>Seqnum</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Image/</t>
+  </si>
+  <si>
+    <t>CC 0.0</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1293,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,16 +1307,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>286</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1384,16 +1327,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1401,16 +1347,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,16 +1367,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,16 +1387,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,1597 +1407,1739 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>286</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>286</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>286</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>286</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>286</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>286</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>286</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>286</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>286</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>286</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>286</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>286</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>286</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>286</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>286</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>286</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>286</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>286</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>286</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>286</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>286</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>286</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>286</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>286</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>286</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>286</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>286</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>286</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>286</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>286</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>286</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F64" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>286</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>286</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F70" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F72" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>286</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F74" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F75" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F77" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>286</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F79" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>286</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>286</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F82" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>286</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>286</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F87" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>286</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F88" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>286</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F92" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>297</v>
-      </c>
-      <c r="B94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" t="s">
-        <v>33</v>
-      </c>
-      <c r="E94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>298</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>299</v>
-      </c>
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>300</v>
-      </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>301</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>302</v>
-      </c>
-      <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>303</v>
-      </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" t="s">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Image.xlsx
+++ b/data/Spreadsheet_Data/Image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7416EB-46C9-B142-B032-A4BC00061FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEB5A09-7679-A34F-93BF-C21AA464A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="500" windowWidth="39520" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
+    <workbookView xWindow="17780" yWindow="500" windowWidth="51400" windowHeight="31500" xr2:uid="{66B744F4-BA8C-F243-ADB2-B02347D4BBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,48 +52,6 @@
     <t>Image Directory</t>
   </si>
   <si>
-    <t>IW_001</t>
-  </si>
-  <si>
-    <t>IW_002</t>
-  </si>
-  <si>
-    <t>IW_003</t>
-  </si>
-  <si>
-    <t>IW_004</t>
-  </si>
-  <si>
-    <t>IW_005</t>
-  </si>
-  <si>
-    <t>IW_006</t>
-  </si>
-  <si>
-    <t>IW_007</t>
-  </si>
-  <si>
-    <t>IW_008</t>
-  </si>
-  <si>
-    <t>IW_009</t>
-  </si>
-  <si>
-    <t>IW_010</t>
-  </si>
-  <si>
-    <t>IW_011</t>
-  </si>
-  <si>
-    <t>IW_012</t>
-  </si>
-  <si>
-    <t>IW_013</t>
-  </si>
-  <si>
-    <t>IW_014</t>
-  </si>
-  <si>
     <t>© John Tenniel</t>
   </si>
   <si>
@@ -223,111 +181,6 @@
     <t>1book41.jpg</t>
   </si>
   <si>
-    <t>IW_015</t>
-  </si>
-  <si>
-    <t>IW_016</t>
-  </si>
-  <si>
-    <t>IW_017</t>
-  </si>
-  <si>
-    <t>IW_018</t>
-  </si>
-  <si>
-    <t>IW_019</t>
-  </si>
-  <si>
-    <t>IW_020</t>
-  </si>
-  <si>
-    <t>IW_021</t>
-  </si>
-  <si>
-    <t>IW_022</t>
-  </si>
-  <si>
-    <t>IW_023</t>
-  </si>
-  <si>
-    <t>IW_024</t>
-  </si>
-  <si>
-    <t>IW_025</t>
-  </si>
-  <si>
-    <t>IW_026</t>
-  </si>
-  <si>
-    <t>IW_027</t>
-  </si>
-  <si>
-    <t>IW_028</t>
-  </si>
-  <si>
-    <t>IW_029</t>
-  </si>
-  <si>
-    <t>IW_030</t>
-  </si>
-  <si>
-    <t>IW_031</t>
-  </si>
-  <si>
-    <t>IW_032</t>
-  </si>
-  <si>
-    <t>IW_033</t>
-  </si>
-  <si>
-    <t>IW_034</t>
-  </si>
-  <si>
-    <t>IW_035</t>
-  </si>
-  <si>
-    <t>IW_036</t>
-  </si>
-  <si>
-    <t>IW_037</t>
-  </si>
-  <si>
-    <t>IW_038</t>
-  </si>
-  <si>
-    <t>IW_039</t>
-  </si>
-  <si>
-    <t>IW_040</t>
-  </si>
-  <si>
-    <t>IW_041</t>
-  </si>
-  <si>
-    <t>IW_042</t>
-  </si>
-  <si>
-    <t>IW_043</t>
-  </si>
-  <si>
-    <t>IW_044</t>
-  </si>
-  <si>
-    <t>IW_045</t>
-  </si>
-  <si>
-    <t>IW_046</t>
-  </si>
-  <si>
-    <t>IW_047</t>
-  </si>
-  <si>
-    <t>IW_048</t>
-  </si>
-  <si>
-    <t>IW_049</t>
-  </si>
-  <si>
     <t>Alice finding a little door</t>
   </si>
   <si>
@@ -604,135 +457,6 @@
     <t>2book49.jpg</t>
   </si>
   <si>
-    <t>IW_050</t>
-  </si>
-  <si>
-    <t>IW_051</t>
-  </si>
-  <si>
-    <t>IW_052</t>
-  </si>
-  <si>
-    <t>IW_053</t>
-  </si>
-  <si>
-    <t>IW_054</t>
-  </si>
-  <si>
-    <t>IW_055</t>
-  </si>
-  <si>
-    <t>IW_056</t>
-  </si>
-  <si>
-    <t>IW_057</t>
-  </si>
-  <si>
-    <t>IW_058</t>
-  </si>
-  <si>
-    <t>IW_059</t>
-  </si>
-  <si>
-    <t>IW_060</t>
-  </si>
-  <si>
-    <t>IW_061</t>
-  </si>
-  <si>
-    <t>IW_062</t>
-  </si>
-  <si>
-    <t>IW_063</t>
-  </si>
-  <si>
-    <t>IW_064</t>
-  </si>
-  <si>
-    <t>IW_065</t>
-  </si>
-  <si>
-    <t>IW_066</t>
-  </si>
-  <si>
-    <t>IW_067</t>
-  </si>
-  <si>
-    <t>IW_068</t>
-  </si>
-  <si>
-    <t>IW_069</t>
-  </si>
-  <si>
-    <t>IW_070</t>
-  </si>
-  <si>
-    <t>IW_071</t>
-  </si>
-  <si>
-    <t>IW_072</t>
-  </si>
-  <si>
-    <t>IW_073</t>
-  </si>
-  <si>
-    <t>IW_074</t>
-  </si>
-  <si>
-    <t>IW_075</t>
-  </si>
-  <si>
-    <t>IW_076</t>
-  </si>
-  <si>
-    <t>IW_077</t>
-  </si>
-  <si>
-    <t>IW_078</t>
-  </si>
-  <si>
-    <t>IW_079</t>
-  </si>
-  <si>
-    <t>IW_080</t>
-  </si>
-  <si>
-    <t>IW_081</t>
-  </si>
-  <si>
-    <t>IW_082</t>
-  </si>
-  <si>
-    <t>IW_083</t>
-  </si>
-  <si>
-    <t>IW_084</t>
-  </si>
-  <si>
-    <t>IW_085</t>
-  </si>
-  <si>
-    <t>IW_086</t>
-  </si>
-  <si>
-    <t>IW_087</t>
-  </si>
-  <si>
-    <t>IW_088</t>
-  </si>
-  <si>
-    <t>IW_089</t>
-  </si>
-  <si>
-    <t>IW_090</t>
-  </si>
-  <si>
-    <t>IW_091</t>
-  </si>
-  <si>
-    <t>IW_092</t>
-  </si>
-  <si>
     <t>White knight riding his horse</t>
   </si>
   <si>
@@ -896,6 +620,282 @@
   </si>
   <si>
     <t>CC 0.0</t>
+  </si>
+  <si>
+    <t>I_001</t>
+  </si>
+  <si>
+    <t>I_002</t>
+  </si>
+  <si>
+    <t>I_003</t>
+  </si>
+  <si>
+    <t>I_004</t>
+  </si>
+  <si>
+    <t>I_005</t>
+  </si>
+  <si>
+    <t>I_006</t>
+  </si>
+  <si>
+    <t>I_007</t>
+  </si>
+  <si>
+    <t>I_008</t>
+  </si>
+  <si>
+    <t>I_009</t>
+  </si>
+  <si>
+    <t>I_010</t>
+  </si>
+  <si>
+    <t>I_011</t>
+  </si>
+  <si>
+    <t>I_012</t>
+  </si>
+  <si>
+    <t>I_013</t>
+  </si>
+  <si>
+    <t>I_014</t>
+  </si>
+  <si>
+    <t>I_015</t>
+  </si>
+  <si>
+    <t>I_016</t>
+  </si>
+  <si>
+    <t>I_017</t>
+  </si>
+  <si>
+    <t>I_018</t>
+  </si>
+  <si>
+    <t>I_019</t>
+  </si>
+  <si>
+    <t>I_020</t>
+  </si>
+  <si>
+    <t>I_021</t>
+  </si>
+  <si>
+    <t>I_022</t>
+  </si>
+  <si>
+    <t>I_023</t>
+  </si>
+  <si>
+    <t>I_024</t>
+  </si>
+  <si>
+    <t>I_025</t>
+  </si>
+  <si>
+    <t>I_026</t>
+  </si>
+  <si>
+    <t>I_027</t>
+  </si>
+  <si>
+    <t>I_028</t>
+  </si>
+  <si>
+    <t>I_029</t>
+  </si>
+  <si>
+    <t>I_030</t>
+  </si>
+  <si>
+    <t>I_031</t>
+  </si>
+  <si>
+    <t>I_032</t>
+  </si>
+  <si>
+    <t>I_033</t>
+  </si>
+  <si>
+    <t>I_034</t>
+  </si>
+  <si>
+    <t>I_035</t>
+  </si>
+  <si>
+    <t>I_036</t>
+  </si>
+  <si>
+    <t>I_037</t>
+  </si>
+  <si>
+    <t>I_038</t>
+  </si>
+  <si>
+    <t>I_039</t>
+  </si>
+  <si>
+    <t>I_040</t>
+  </si>
+  <si>
+    <t>I_041</t>
+  </si>
+  <si>
+    <t>I_042</t>
+  </si>
+  <si>
+    <t>I_043</t>
+  </si>
+  <si>
+    <t>I_044</t>
+  </si>
+  <si>
+    <t>I_045</t>
+  </si>
+  <si>
+    <t>I_046</t>
+  </si>
+  <si>
+    <t>I_047</t>
+  </si>
+  <si>
+    <t>I_048</t>
+  </si>
+  <si>
+    <t>I_049</t>
+  </si>
+  <si>
+    <t>I_050</t>
+  </si>
+  <si>
+    <t>I_051</t>
+  </si>
+  <si>
+    <t>I_052</t>
+  </si>
+  <si>
+    <t>I_053</t>
+  </si>
+  <si>
+    <t>I_054</t>
+  </si>
+  <si>
+    <t>I_055</t>
+  </si>
+  <si>
+    <t>I_056</t>
+  </si>
+  <si>
+    <t>I_057</t>
+  </si>
+  <si>
+    <t>I_058</t>
+  </si>
+  <si>
+    <t>I_059</t>
+  </si>
+  <si>
+    <t>I_060</t>
+  </si>
+  <si>
+    <t>I_061</t>
+  </si>
+  <si>
+    <t>I_062</t>
+  </si>
+  <si>
+    <t>I_063</t>
+  </si>
+  <si>
+    <t>I_064</t>
+  </si>
+  <si>
+    <t>I_065</t>
+  </si>
+  <si>
+    <t>I_066</t>
+  </si>
+  <si>
+    <t>I_067</t>
+  </si>
+  <si>
+    <t>I_068</t>
+  </si>
+  <si>
+    <t>I_069</t>
+  </si>
+  <si>
+    <t>I_070</t>
+  </si>
+  <si>
+    <t>I_071</t>
+  </si>
+  <si>
+    <t>I_072</t>
+  </si>
+  <si>
+    <t>I_073</t>
+  </si>
+  <si>
+    <t>I_074</t>
+  </si>
+  <si>
+    <t>I_075</t>
+  </si>
+  <si>
+    <t>I_076</t>
+  </si>
+  <si>
+    <t>I_077</t>
+  </si>
+  <si>
+    <t>I_078</t>
+  </si>
+  <si>
+    <t>I_079</t>
+  </si>
+  <si>
+    <t>I_080</t>
+  </si>
+  <si>
+    <t>I_081</t>
+  </si>
+  <si>
+    <t>I_082</t>
+  </si>
+  <si>
+    <t>I_083</t>
+  </si>
+  <si>
+    <t>I_084</t>
+  </si>
+  <si>
+    <t>I_085</t>
+  </si>
+  <si>
+    <t>I_086</t>
+  </si>
+  <si>
+    <t>I_087</t>
+  </si>
+  <si>
+    <t>I_088</t>
+  </si>
+  <si>
+    <t>I_089</t>
+  </si>
+  <si>
+    <t>I_090</t>
+  </si>
+  <si>
+    <t>I_091</t>
+  </si>
+  <si>
+    <t>I_092</t>
   </si>
 </sst>
 </file>
@@ -1264,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74556BE0-D537-5748-89ED-4DC0B4F13FEE}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D93"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1293,1853 +1293,1853 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E18" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E23" t="s">
-        <v>285</v>
-      </c>
-      <c r="F23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
         <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E25" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" t="s">
-        <v>285</v>
-      </c>
-      <c r="F27" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>286</v>
-      </c>
-      <c r="E28" t="s">
-        <v>285</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" t="s">
-        <v>285</v>
-      </c>
-      <c r="F29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
         <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>286</v>
-      </c>
-      <c r="E30" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E31" t="s">
-        <v>285</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>286</v>
-      </c>
-      <c r="E33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>286</v>
-      </c>
-      <c r="E34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E35" t="s">
-        <v>285</v>
-      </c>
-      <c r="F35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
         <v>82</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" t="s">
-        <v>285</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
         <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>286</v>
-      </c>
-      <c r="E37" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
         <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>286</v>
-      </c>
-      <c r="E38" t="s">
-        <v>285</v>
-      </c>
-      <c r="F38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>286</v>
-      </c>
-      <c r="E39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" t="s">
-        <v>285</v>
-      </c>
-      <c r="F40" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>286</v>
-      </c>
-      <c r="E43" t="s">
-        <v>285</v>
-      </c>
-      <c r="F43" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B44" t="s">
         <v>90</v>
       </c>
-      <c r="B44" t="s">
-        <v>139</v>
-      </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F44" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="s">
-        <v>140</v>
-      </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F45" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>239</v>
+      </c>
+      <c r="B46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="B47" t="s">
-        <v>142</v>
-      </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E47" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F59" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F60" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F62" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F63" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F66" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F67" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E71" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F73" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F74" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F75" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F76" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F81" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F82" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F85" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F86" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F87" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F89" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F91" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="F93" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Image.xlsx
+++ b/data/Spreadsheet_Data/Image.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E5203-309A-F341-B9BF-7B9A217831D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885C012F-17F6-D04A-BD8E-59BC4246FFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="500" windowWidth="66960" windowHeight="30840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>John Tenniel</t>
-  </si>
-  <si>
-    <t>CC0 1.0</t>
   </si>
   <si>
     <t>data/Multimedia_Data/Image/</t>
@@ -1469,8 +1466,8 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1475,7 @@
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="7" max="7" width="52.28515625" customWidth="1"/>
@@ -1503,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1535,3408 +1532,3408 @@
         <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>387</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I2" s="4">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="4">
         <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4">
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4">
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4">
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4">
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="4">
         <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="4">
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="4">
         <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="4">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="4">
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I19" s="4">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4">
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="4">
         <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="4">
         <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23" s="4">
         <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="H24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="4">
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" s="4">
         <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4">
         <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="4">
         <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="4">
         <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="4">
         <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="4">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="4">
         <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="4">
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="4">
         <v>40</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="4">
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="4">
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H38" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="4">
         <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I39" s="4">
         <v>28</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="4">
         <v>42</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="4">
         <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4">
+        <v>24</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I42" s="4">
-        <v>24</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="H43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="4">
+        <v>23</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I43" s="4">
-        <v>23</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="H44" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I44" s="4">
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="H45" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I45" s="4">
         <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="H46" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="4">
         <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="4">
         <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="4">
         <v>31</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H49" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="4">
         <v>19</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="H50" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="4">
         <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="H51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="4">
         <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="4">
         <v>17</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="H53" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="4">
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="H54" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="4">
         <v>33</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H55" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" s="4">
         <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="4">
         <v>35</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I57" s="4">
         <v>27</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="H58" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="4">
         <v>39</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="4">
         <v>38</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="4">
         <v>26</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I61" s="4">
         <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I62" s="4">
         <v>32</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="H63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I63" s="4">
         <v>31</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="H64" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" s="4">
         <v>9</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H66" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I66" s="4">
         <v>41</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="H67" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="4">
         <v>36</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="H68" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="4">
         <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K68" s="5"/>
       <c r="L68" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="H69" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="4">
         <v>34</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="4">
         <v>10</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="H71" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I71" s="4">
         <v>46</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="H72" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I72" s="4">
         <v>29</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="4">
+        <v>23</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="4">
-        <v>23</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="H74" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I74" s="4">
         <v>38</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" s="4">
         <v>43</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="H76" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I76" s="4">
         <v>44</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="H77" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I77" s="4">
         <v>15</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="H78" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I78" s="4">
         <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="H79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="4">
+        <v>14</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I79" s="4">
-        <v>14</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="H80" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I80" s="4">
         <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="H81" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I81" s="4">
         <v>10</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="H82" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="4">
         <v>25</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="4">
+        <v>24</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L83" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="4">
-        <v>24</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" s="4">
+        <v>22</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L84" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I84" s="4">
-        <v>22</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L84" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I85" s="4">
         <v>21</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="H86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="4">
         <v>20</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="H87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87" s="4">
         <v>33</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="H88" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="4">
         <v>39</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I89" s="4">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L89" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="H90" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I90" s="4">
         <v>41</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="4">
         <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C92" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="H92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="4">
         <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="H93" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="4">
         <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
